--- a/biology/Zoologie/Élanion_lettré/Élanion_lettré.xlsx
+++ b/biology/Zoologie/Élanion_lettré/Élanion_lettré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lanion_lettr%C3%A9</t>
+          <t>Élanion_lettré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elanus scriptus
 L'Élanion lettré (Elanus scriptus) est une petite espèce de rapaces du centre de l'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lanion_lettr%C3%A9</t>
+          <t>Élanion_lettré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ressemble beaucoup à l'Élanion d'Australie en dehors d'un « M » noir sur la face inférieure des ailes visible en vol.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lanion_lettr%C3%A9</t>
+          <t>Élanion_lettré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite le centre de l'Australie dans les régions semi-désertiques, boisées ou herbacées.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lanion_lettr%C3%A9</t>
+          <t>Élanion_lettré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal nocturne, se reposant le jour caché dans le feuillage des arbres. Il se nourrit essentiellement d'une espèce de rat : Rattus villosissimus. Quand le nombre de rongeurs augmente, après les pluies, les élanions sont capables de se reproduire rapidement et d'augmenter leur population proportionnellement à celle des rats. Quand le nombre de rats diminue, les élanions en surnombre peuvent se disperser et s'installer dans les régions côtières mais même si elles y nichent, elles n'y restent pas et finissent par disparaitre.
 </t>
